--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2983515.122675767</v>
+        <v>-2986185.118230729</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9823063.766377155</v>
+        <v>9823063.766377153</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673439</v>
       </c>
     </row>
     <row r="9">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>369.0685238739792</v>
+        <v>264.2064721475121</v>
       </c>
       <c r="C11" t="n">
-        <v>351.6075739815062</v>
+        <v>351.6075739815061</v>
       </c>
       <c r="D11" t="n">
-        <v>341.0177238311816</v>
+        <v>341.0177238311815</v>
       </c>
       <c r="E11" t="n">
-        <v>235.4913885728672</v>
+        <v>368.2650522827603</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>27.91161198342451</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>95.52244399867442</v>
+        <v>95.52244399867439</v>
       </c>
       <c r="T11" t="n">
-        <v>190.2526523501191</v>
+        <v>190.2526523501187</v>
       </c>
       <c r="U11" t="n">
-        <v>237.3298541694002</v>
+        <v>237.3298541694007</v>
       </c>
       <c r="V11" t="n">
         <v>314.0869406806335</v>
@@ -1436,7 +1436,7 @@
         <v>356.0657828889676</v>
       </c>
       <c r="Y11" t="n">
-        <v>372.5726208665522</v>
+        <v>372.5726208665521</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.777069900511282</v>
+        <v>2.695598957021077</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>153.5815033091264</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>134.9501552287109</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>152.3604904695268</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0896971248194</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>75.26683488054591</v>
+        <v>75.26683488054589</v>
       </c>
       <c r="S13" t="n">
         <v>176.1037075419405</v>
@@ -1582,7 +1582,7 @@
         <v>205.8836314866678</v>
       </c>
       <c r="U13" t="n">
-        <v>272.5465204161115</v>
+        <v>272.5465204161114</v>
       </c>
       <c r="V13" t="n">
         <v>238.4723255343266</v>
@@ -1594,7 +1594,7 @@
         <v>212.0443375995357</v>
       </c>
       <c r="Y13" t="n">
-        <v>204.9193355625934</v>
+        <v>204.9193355625933</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>369.0685238739791</v>
+        <v>369.0685238739792</v>
       </c>
       <c r="C14" t="n">
-        <v>351.6075739815061</v>
+        <v>351.6075739815062</v>
       </c>
       <c r="D14" t="n">
-        <v>341.0177238311815</v>
+        <v>323.4782777896546</v>
       </c>
       <c r="E14" t="n">
-        <v>235.4913885728685</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>280.9424465978191</v>
       </c>
       <c r="I14" t="n">
-        <v>27.91161198342446</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>95.52244399867436</v>
+        <v>95.52244399867466</v>
       </c>
       <c r="T14" t="n">
-        <v>190.2526523501187</v>
+        <v>190.2526523501188</v>
       </c>
       <c r="U14" t="n">
-        <v>237.3298541694011</v>
+        <v>237.3298541694002</v>
       </c>
       <c r="V14" t="n">
         <v>314.0869406806335</v>
@@ -1673,7 +1673,7 @@
         <v>356.0657828889676</v>
       </c>
       <c r="Y14" t="n">
-        <v>372.5726208665521</v>
+        <v>372.5726208665522</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>166.1666623924358</v>
+        <v>166.1666623924359</v>
       </c>
       <c r="C16" t="n">
-        <v>125.0605951024227</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>132.7686448570678</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>75.26683488054587</v>
+        <v>75.26683488054591</v>
       </c>
       <c r="S16" t="n">
-        <v>176.1037075419404</v>
+        <v>176.1037075419405</v>
       </c>
       <c r="T16" t="n">
-        <v>205.8836314866677</v>
+        <v>205.8836314866678</v>
       </c>
       <c r="U16" t="n">
-        <v>272.5465204161114</v>
+        <v>272.5465204161115</v>
       </c>
       <c r="V16" t="n">
-        <v>238.4723255343265</v>
+        <v>238.4723255343266</v>
       </c>
       <c r="W16" t="n">
         <v>272.8576805470896</v>
@@ -1831,7 +1831,7 @@
         <v>212.0443375995357</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.9193355625933</v>
+        <v>197.2112858079474</v>
       </c>
     </row>
     <row r="17">
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>322.0933872553866</v>
+        <v>283.2820788211311</v>
       </c>
       <c r="C17" t="n">
-        <v>304.6324373629135</v>
+        <v>304.6324373629136</v>
       </c>
       <c r="D17" t="n">
         <v>294.042587212589</v>
@@ -1853,7 +1853,7 @@
         <v>321.2899156641678</v>
       </c>
       <c r="F17" t="n">
-        <v>307.4242828993638</v>
+        <v>346.2355913336174</v>
       </c>
       <c r="G17" t="n">
         <v>350.2812712453594</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>48.54730738008185</v>
+        <v>48.54730738008186</v>
       </c>
       <c r="T17" t="n">
-        <v>143.2775157315262</v>
+        <v>143.2775157315264</v>
       </c>
       <c r="U17" t="n">
-        <v>190.3547175508088</v>
+        <v>190.3547175508079</v>
       </c>
       <c r="V17" t="n">
-        <v>267.1118040620409</v>
+        <v>267.111804062041</v>
       </c>
       <c r="W17" t="n">
         <v>288.600514309319</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>322.0933872553866</v>
       </c>
       <c r="C20" t="n">
-        <v>304.6324373629135</v>
+        <v>304.6324373629136</v>
       </c>
       <c r="D20" t="n">
         <v>294.042587212589</v>
@@ -2090,10 +2090,10 @@
         <v>321.2899156641678</v>
       </c>
       <c r="F20" t="n">
-        <v>307.4242828993638</v>
+        <v>346.2355913336174</v>
       </c>
       <c r="G20" t="n">
-        <v>350.2812712453594</v>
+        <v>311.4699628111043</v>
       </c>
       <c r="H20" t="n">
         <v>233.9673099792265</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>48.54730738008191</v>
+        <v>48.54730738008236</v>
       </c>
       <c r="T20" t="n">
         <v>143.2775157315262</v>
       </c>
       <c r="U20" t="n">
-        <v>190.3547175508084</v>
+        <v>190.3547175508079</v>
       </c>
       <c r="V20" t="n">
-        <v>267.1118040620409</v>
+        <v>267.111804062041</v>
       </c>
       <c r="W20" t="n">
         <v>288.600514309319</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247744</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>322.0933872553866</v>
       </c>
       <c r="C23" t="n">
-        <v>304.6324373629135</v>
+        <v>304.6324373629136</v>
       </c>
       <c r="D23" t="n">
         <v>294.042587212589</v>
@@ -2369,13 +2369,13 @@
         <v>48.54730738008186</v>
       </c>
       <c r="T23" t="n">
-        <v>143.2775157315264</v>
+        <v>143.2775157315262</v>
       </c>
       <c r="U23" t="n">
         <v>190.3547175508084</v>
       </c>
       <c r="V23" t="n">
-        <v>267.1118040620409</v>
+        <v>267.111804062041</v>
       </c>
       <c r="W23" t="n">
         <v>288.600514309319</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210278</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403097</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2621,7 +2621,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247752</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572858</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
         <v>359.9009091231189</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210278</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403097</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
         <v>302.2658320988205</v>
@@ -2858,7 +2858,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572832</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124491</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.2126251695837</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403084</v>
+        <v>204.0200353403088</v>
       </c>
       <c r="V32" t="n">
         <v>280.7771218515423</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572812</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124572</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124572</v>
+        <v>49.37728379124525</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403102</v>
       </c>
       <c r="V38" t="n">
         <v>280.7771218515423</v>
@@ -3679,7 +3679,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124571</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C41" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F41" t="n">
         <v>359.9009091231189</v>
@@ -3755,7 +3755,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958333</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210278</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403097</v>
+        <v>204.0200353403088</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W41" t="n">
         <v>302.2658320988205</v>
@@ -3806,7 +3806,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797667</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433874</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572828</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="44">
@@ -3977,19 +3977,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H44" t="n">
         <v>247.6326277687279</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.2126251695837</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T44" t="n">
-        <v>156.9428335210273</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403097</v>
       </c>
       <c r="V44" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575772</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870207</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V46" t="n">
         <v>205.1625067052354</v>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1032.19726629984</v>
+        <v>1138.11853067001</v>
       </c>
       <c r="C11" t="n">
-        <v>677.0381006619548</v>
+        <v>782.9593650321247</v>
       </c>
       <c r="D11" t="n">
-        <v>332.5757533577309</v>
+        <v>438.4970177279009</v>
       </c>
       <c r="E11" t="n">
-        <v>94.70566389018798</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F11" t="n">
-        <v>94.70566389018798</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G11" t="n">
-        <v>94.70566389018798</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>94.70566389018798</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5051,16 +5051,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5069,7 +5069,7 @@
         <v>3229.118504438793</v>
       </c>
       <c r="T11" t="n">
-        <v>3036.944108125541</v>
+        <v>3036.944108125542</v>
       </c>
       <c r="U11" t="n">
         <v>2797.216982701905</v>
@@ -5078,13 +5078,13 @@
         <v>2479.957446660861</v>
       </c>
       <c r="W11" t="n">
-        <v>2140.992142693273</v>
+        <v>2140.992142693274</v>
       </c>
       <c r="X11" t="n">
-        <v>1781.32973573472</v>
+        <v>1781.329735734721</v>
       </c>
       <c r="Y11" t="n">
-        <v>1404.993755061435</v>
+        <v>1404.993755061436</v>
       </c>
     </row>
     <row r="12">
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927788</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>352.8254372345533</v>
+        <v>357.9582361673727</v>
       </c>
       <c r="C13" t="n">
-        <v>352.8254372345533</v>
+        <v>202.8254045419924</v>
       </c>
       <c r="D13" t="n">
-        <v>352.8254372345533</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E13" t="n">
-        <v>352.8254372345533</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F13" t="n">
-        <v>352.8254372345533</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>198.925951911799</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>125.1634134907252</v>
+        <v>125.1634134907254</v>
       </c>
       <c r="K13" t="n">
-        <v>342.679261051208</v>
+        <v>342.6792610512082</v>
       </c>
       <c r="L13" t="n">
-        <v>672.7677241113105</v>
+        <v>672.7677241113108</v>
       </c>
       <c r="M13" t="n">
         <v>1030.453434322466</v>
@@ -5218,31 +5218,31 @@
         <v>1944.384904217223</v>
       </c>
       <c r="Q13" t="n">
-        <v>2035.523864981343</v>
+        <v>2035.523864981344</v>
       </c>
       <c r="R13" t="n">
-        <v>1959.496759041398</v>
+        <v>1959.496759041399</v>
       </c>
       <c r="S13" t="n">
-        <v>1781.614226170751</v>
+        <v>1781.614226170752</v>
       </c>
       <c r="T13" t="n">
-        <v>1573.650962042804</v>
+        <v>1573.650962042805</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.351446470974</v>
+        <v>1298.351446470975</v>
       </c>
       <c r="V13" t="n">
-        <v>1057.470309567614</v>
+        <v>1057.470309567615</v>
       </c>
       <c r="W13" t="n">
-        <v>781.8564908331799</v>
+        <v>781.8564908331809</v>
       </c>
       <c r="X13" t="n">
-        <v>567.6702912376893</v>
+        <v>567.6702912376903</v>
       </c>
       <c r="Y13" t="n">
-        <v>360.6810633966859</v>
+        <v>360.6810633966869</v>
       </c>
     </row>
     <row r="14">
@@ -5252,61 +5252,61 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1032.197266299841</v>
+        <v>1032.19726629984</v>
       </c>
       <c r="C14" t="n">
-        <v>677.0381006619557</v>
+        <v>677.0381006619548</v>
       </c>
       <c r="D14" t="n">
-        <v>332.575753357732</v>
+        <v>350.2923655208896</v>
       </c>
       <c r="E14" t="n">
-        <v>94.70566389018794</v>
+        <v>350.2923655208896</v>
       </c>
       <c r="F14" t="n">
-        <v>94.70566389018794</v>
+        <v>350.2923655208896</v>
       </c>
       <c r="G14" t="n">
-        <v>94.70566389018794</v>
+        <v>350.2923655208896</v>
       </c>
       <c r="H14" t="n">
-        <v>94.70566389018794</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
         <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3229.118504438794</v>
+        <v>3229.118504438793</v>
       </c>
       <c r="T14" t="n">
-        <v>3036.944108125543</v>
+        <v>3036.944108125542</v>
       </c>
       <c r="U14" t="n">
         <v>2797.216982701905</v>
@@ -5315,13 +5315,13 @@
         <v>2479.957446660861</v>
       </c>
       <c r="W14" t="n">
-        <v>2140.992142693274</v>
+        <v>2140.992142693273</v>
       </c>
       <c r="X14" t="n">
-        <v>1781.329735734721</v>
+        <v>1781.32973573472</v>
       </c>
       <c r="Y14" t="n">
-        <v>1404.993755061436</v>
+        <v>1404.993755061435</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>192.835949868974</v>
+        <v>200.6218587120499</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218343</v>
+        <v>200.6218587120499</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218343</v>
+        <v>200.6218587120499</v>
       </c>
       <c r="E16" t="n">
         <v>66.51211643218343</v>
@@ -5440,7 +5440,7 @@
         <v>342.6792610512082</v>
       </c>
       <c r="L16" t="n">
-        <v>672.7677241113108</v>
+        <v>672.7677241113105</v>
       </c>
       <c r="M16" t="n">
         <v>1030.453434322466</v>
@@ -5455,31 +5455,31 @@
         <v>1944.384904217223</v>
       </c>
       <c r="Q16" t="n">
-        <v>2035.523864981345</v>
+        <v>2035.523864981344</v>
       </c>
       <c r="R16" t="n">
-        <v>1959.496759041399</v>
+        <v>1959.496759041398</v>
       </c>
       <c r="S16" t="n">
-        <v>1781.614226170752</v>
+        <v>1781.614226170751</v>
       </c>
       <c r="T16" t="n">
-        <v>1573.650962042805</v>
+        <v>1573.650962042804</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.351446470975</v>
+        <v>1298.351446470974</v>
       </c>
       <c r="V16" t="n">
-        <v>1057.470309567615</v>
+        <v>1057.470309567614</v>
       </c>
       <c r="W16" t="n">
-        <v>781.8564908331811</v>
+        <v>781.8564908331801</v>
       </c>
       <c r="X16" t="n">
-        <v>567.6702912376904</v>
+        <v>567.6702912376895</v>
       </c>
       <c r="Y16" t="n">
-        <v>360.681063396687</v>
+        <v>368.4669722397629</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1906.340210162616</v>
+        <v>1945.543552015397</v>
       </c>
       <c r="C17" t="n">
-        <v>1598.630677472805</v>
+        <v>1637.834019325586</v>
       </c>
       <c r="D17" t="n">
-        <v>1301.617963116654</v>
+        <v>1340.821304969435</v>
       </c>
       <c r="E17" t="n">
-        <v>977.0826947690097</v>
+        <v>1016.286036621791</v>
       </c>
       <c r="F17" t="n">
-        <v>666.5531160827836</v>
+        <v>666.5531160827835</v>
       </c>
       <c r="G17" t="n">
-        <v>312.7336501783801</v>
+        <v>312.73365017838</v>
       </c>
       <c r="H17" t="n">
-        <v>76.40303403774722</v>
+        <v>76.40303403774719</v>
       </c>
       <c r="I17" t="n">
-        <v>76.40303403774722</v>
+        <v>76.40303403774719</v>
       </c>
       <c r="J17" t="n">
-        <v>265.2821649967727</v>
+        <v>265.2821649967726</v>
       </c>
       <c r="K17" t="n">
-        <v>599.1015386866192</v>
+        <v>599.1015386866191</v>
       </c>
       <c r="L17" t="n">
-        <v>1050.135751935028</v>
+        <v>1259.539618180094</v>
       </c>
       <c r="M17" t="n">
-        <v>1583.667656606953</v>
+        <v>1793.071522852018</v>
       </c>
       <c r="N17" t="n">
-        <v>2130.446473665735</v>
+        <v>2339.850339910801</v>
       </c>
       <c r="O17" t="n">
-        <v>2633.418944545072</v>
+        <v>2842.822810790138</v>
       </c>
       <c r="P17" t="n">
-        <v>3237.597177147318</v>
+        <v>3237.597177147316</v>
       </c>
       <c r="Q17" t="n">
-        <v>3696.075379656306</v>
+        <v>3696.075379656304</v>
       </c>
       <c r="R17" t="n">
-        <v>3820.151701887361</v>
+        <v>3820.151701887359</v>
       </c>
       <c r="S17" t="n">
-        <v>3771.114017665056</v>
+        <v>3771.114017665054</v>
       </c>
       <c r="T17" t="n">
-        <v>3626.389254299878</v>
+        <v>3626.389254299876</v>
       </c>
       <c r="U17" t="n">
-        <v>3434.111761824314</v>
+        <v>3434.111761824312</v>
       </c>
       <c r="V17" t="n">
-        <v>3164.301858731343</v>
+        <v>3164.301858731342</v>
       </c>
       <c r="W17" t="n">
-        <v>2872.786187711829</v>
+        <v>2872.786187711828</v>
       </c>
       <c r="X17" t="n">
-        <v>2560.573413701349</v>
+        <v>2560.573413701348</v>
       </c>
       <c r="Y17" t="n">
-        <v>2231.687065976138</v>
+        <v>2231.687065976136</v>
       </c>
     </row>
     <row r="18">
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>951.4347720866725</v>
+        <v>951.4347720866724</v>
       </c>
       <c r="C18" t="n">
-        <v>776.9817428055455</v>
+        <v>776.9817428055454</v>
       </c>
       <c r="D18" t="n">
-        <v>628.0473331442943</v>
+        <v>628.0473331442942</v>
       </c>
       <c r="E18" t="n">
         <v>468.8098781388387</v>
@@ -5583,13 +5583,13 @@
         <v>322.2753201657237</v>
       </c>
       <c r="G18" t="n">
-        <v>185.9122199983417</v>
+        <v>185.9122199983418</v>
       </c>
       <c r="H18" t="n">
-        <v>95.41032563620925</v>
+        <v>95.41032563620928</v>
       </c>
       <c r="I18" t="n">
-        <v>76.40303403774722</v>
+        <v>76.40303403774719</v>
       </c>
       <c r="J18" t="n">
         <v>170.0803035283645</v>
@@ -5598,7 +5598,7 @@
         <v>408.3445025087117</v>
       </c>
       <c r="L18" t="n">
-        <v>775.0426628213771</v>
+        <v>775.042662821377</v>
       </c>
       <c r="M18" t="n">
         <v>1222.318988043693</v>
@@ -5668,25 +5668,25 @@
         <v>112.4757269688019</v>
       </c>
       <c r="I19" t="n">
-        <v>76.40303403774722</v>
+        <v>76.40303403774719</v>
       </c>
       <c r="J19" t="n">
-        <v>121.5256664846828</v>
+        <v>181.5597163486958</v>
       </c>
       <c r="K19" t="n">
-        <v>325.5128494335592</v>
+        <v>385.5468992975722</v>
       </c>
       <c r="L19" t="n">
-        <v>642.0726478820552</v>
+        <v>702.1066977460682</v>
       </c>
       <c r="M19" t="n">
-        <v>1017.351054932404</v>
+        <v>1046.263743345617</v>
       </c>
       <c r="N19" t="n">
-        <v>1358.759431638269</v>
+        <v>1387.672120051482</v>
       </c>
       <c r="O19" t="n">
-        <v>1718.123080422695</v>
+        <v>1747.035768835908</v>
       </c>
       <c r="P19" t="n">
         <v>2010.764630720368</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1906.340210162616</v>
+        <v>1906.340210162614</v>
       </c>
       <c r="C20" t="n">
-        <v>1598.630677472805</v>
+        <v>1598.630677472803</v>
       </c>
       <c r="D20" t="n">
-        <v>1301.617963116654</v>
+        <v>1301.617963116653</v>
       </c>
       <c r="E20" t="n">
-        <v>977.0826947690097</v>
+        <v>977.0826947690083</v>
       </c>
       <c r="F20" t="n">
-        <v>666.5531160827836</v>
+        <v>627.3497742300008</v>
       </c>
       <c r="G20" t="n">
-        <v>312.7336501783801</v>
+        <v>312.73365017838</v>
       </c>
       <c r="H20" t="n">
-        <v>76.40303403774722</v>
+        <v>76.40303403774719</v>
       </c>
       <c r="I20" t="n">
-        <v>76.40303403774722</v>
+        <v>76.40303403774719</v>
       </c>
       <c r="J20" t="n">
-        <v>265.2821649967727</v>
+        <v>265.2821649967726</v>
       </c>
       <c r="K20" t="n">
-        <v>599.1015386866192</v>
+        <v>599.1015386866191</v>
       </c>
       <c r="L20" t="n">
-        <v>1050.135751935028</v>
+        <v>1151.150737843632</v>
       </c>
       <c r="M20" t="n">
-        <v>1583.667656606953</v>
+        <v>1684.682642515557</v>
       </c>
       <c r="N20" t="n">
-        <v>2130.446473665735</v>
+        <v>2231.461459574339</v>
       </c>
       <c r="O20" t="n">
-        <v>2633.418944545072</v>
+        <v>2734.433930453676</v>
       </c>
       <c r="P20" t="n">
-        <v>3237.597177147318</v>
+        <v>3447.789017900622</v>
       </c>
       <c r="Q20" t="n">
-        <v>3696.075379656306</v>
+        <v>3696.075379656304</v>
       </c>
       <c r="R20" t="n">
-        <v>3820.151701887361</v>
+        <v>3820.15170188736</v>
       </c>
       <c r="S20" t="n">
-        <v>3771.114017665056</v>
+        <v>3771.114017665054</v>
       </c>
       <c r="T20" t="n">
-        <v>3626.389254299878</v>
+        <v>3626.389254299876</v>
       </c>
       <c r="U20" t="n">
-        <v>3434.111761824314</v>
+        <v>3434.111761824313</v>
       </c>
       <c r="V20" t="n">
-        <v>3164.301858731343</v>
+        <v>3164.301858731342</v>
       </c>
       <c r="W20" t="n">
-        <v>2872.786187711829</v>
+        <v>2872.786187711828</v>
       </c>
       <c r="X20" t="n">
-        <v>2560.573413701349</v>
+        <v>2560.573413701348</v>
       </c>
       <c r="Y20" t="n">
-        <v>2231.687065976138</v>
+        <v>2231.687065976136</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>95.41032563620928</v>
       </c>
       <c r="I21" t="n">
-        <v>76.40303403774722</v>
+        <v>76.40303403774719</v>
       </c>
       <c r="J21" t="n">
         <v>170.0803035283645</v>
@@ -5905,25 +5905,25 @@
         <v>112.4757269688019</v>
       </c>
       <c r="I22" t="n">
-        <v>76.40303403774722</v>
+        <v>76.40303403774719</v>
       </c>
       <c r="J22" t="n">
-        <v>152.6470279354826</v>
+        <v>121.5256664846827</v>
       </c>
       <c r="K22" t="n">
-        <v>356.634210884359</v>
+        <v>325.5128494335592</v>
       </c>
       <c r="L22" t="n">
-        <v>673.1940093328551</v>
+        <v>642.0726478820552</v>
       </c>
       <c r="M22" t="n">
-        <v>1017.351054932404</v>
+        <v>1046.263743345617</v>
       </c>
       <c r="N22" t="n">
-        <v>1418.793481502282</v>
+        <v>1447.706169915495</v>
       </c>
       <c r="O22" t="n">
-        <v>1718.123080422695</v>
+        <v>1778.157130286708</v>
       </c>
       <c r="P22" t="n">
         <v>2010.764630720368</v>
@@ -5966,16 +5966,16 @@
         <v>1946.343620216475</v>
       </c>
       <c r="C23" t="n">
-        <v>1638.634087526663</v>
+        <v>1638.634087526664</v>
       </c>
       <c r="D23" t="n">
         <v>1341.621373170513</v>
       </c>
       <c r="E23" t="n">
-        <v>1017.086104822868</v>
+        <v>1017.086104822869</v>
       </c>
       <c r="F23" t="n">
-        <v>667.3531842838609</v>
+        <v>667.3531842838613</v>
       </c>
       <c r="G23" t="n">
         <v>313.5337183794572</v>
@@ -5996,19 +5996,19 @@
         <v>1050.935820136105</v>
       </c>
       <c r="M23" t="n">
-        <v>1584.46772480803</v>
+        <v>2006.324210341557</v>
       </c>
       <c r="N23" t="n">
-        <v>2131.246541866812</v>
+        <v>2553.10302740034</v>
       </c>
       <c r="O23" t="n">
-        <v>2882.826220843999</v>
+        <v>3056.075498279677</v>
       </c>
       <c r="P23" t="n">
-        <v>3277.600587201177</v>
+        <v>3450.849864636855</v>
       </c>
       <c r="Q23" t="n">
-        <v>3736.078789710165</v>
+        <v>3801.138045384418</v>
       </c>
       <c r="R23" t="n">
         <v>3860.15511194122</v>
@@ -6023,13 +6023,13 @@
         <v>3474.115171878173</v>
       </c>
       <c r="V23" t="n">
-        <v>3204.305268785202</v>
+        <v>3204.305268785203</v>
       </c>
       <c r="W23" t="n">
-        <v>2912.789597765688</v>
+        <v>2912.789597765689</v>
       </c>
       <c r="X23" t="n">
-        <v>2600.576823755208</v>
+        <v>2600.576823755209</v>
       </c>
       <c r="Y23" t="n">
         <v>2271.690476029997</v>
@@ -6154,16 +6154,16 @@
         <v>642.8727160831324</v>
       </c>
       <c r="M25" t="n">
-        <v>987.0297616826815</v>
+        <v>1018.151123133481</v>
       </c>
       <c r="N25" t="n">
         <v>1359.559499839346</v>
       </c>
       <c r="O25" t="n">
-        <v>1718.923148623772</v>
+        <v>1658.889098759759</v>
       </c>
       <c r="P25" t="n">
-        <v>2011.564698921445</v>
+        <v>1951.530649057432</v>
       </c>
       <c r="Q25" t="n">
         <v>2089.17499507396</v>
@@ -6206,70 +6206,70 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557148</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455613</v>
       </c>
       <c r="L26" t="n">
         <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1588.411539465894</v>
+        <v>1588.411539465895</v>
       </c>
       <c r="N26" t="n">
-        <v>2135.190356524677</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O26" t="n">
-        <v>2761.436232647468</v>
+        <v>3071.136282571879</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
         <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6348,7 +6348,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="28">
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913846</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415476</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643398</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
         <v>423.2675027973144</v>
@@ -6403,7 +6403,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
         <v>2271.591606277853</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347424</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519667</v>
       </c>
     </row>
     <row r="29">
@@ -6437,61 +6437,61 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557148</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455613</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1543.189242259776</v>
       </c>
       <c r="M29" t="n">
-        <v>1588.411539465895</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N29" t="n">
-        <v>2135.190356524677</v>
+        <v>2623.499963990483</v>
       </c>
       <c r="O29" t="n">
-        <v>2761.43623264747</v>
+        <v>3126.47243486982</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094416</v>
+        <v>3521.246801226998</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603404</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
@@ -6506,7 +6506,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257036</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913838</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415467</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643389</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302699</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6649,7 +6649,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
@@ -6686,7 +6686,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6704,25 +6704,25 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1076.411957014865</v>
       </c>
       <c r="M32" t="n">
-        <v>1588.411539465894</v>
+        <v>1609.943861686789</v>
       </c>
       <c r="N32" t="n">
-        <v>2135.190356524677</v>
+        <v>2156.722678745572</v>
       </c>
       <c r="O32" t="n">
-        <v>2761.436232647468</v>
+        <v>3036.687329075026</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309626</v>
@@ -6731,7 +6731,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
         <v>3346.282596468334</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
         <v>81.14691689668915</v>
@@ -6822,7 +6822,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257042</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415473</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668915</v>
@@ -6865,7 +6865,7 @@
         <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D35" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J35" t="n">
         <v>270.0260478557146</v>
@@ -6941,34 +6941,34 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L35" t="n">
-        <v>1054.87963479397</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M35" t="n">
-        <v>1588.411539465894</v>
+        <v>2240.457506552423</v>
       </c>
       <c r="N35" t="n">
-        <v>2135.190356524677</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O35" t="n">
-        <v>2761.436232647468</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R35" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
         <v>3346.282596468334</v>
@@ -6977,7 +6977,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
         <v>2372.257749805548</v>
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C36" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D36" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E36" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F36" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G36" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H36" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873065</v>
@@ -7059,7 +7059,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y36" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960316</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
@@ -7114,7 +7114,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R37" t="n">
         <v>2271.591606277852</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="38">
@@ -7160,16 +7160,16 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
         <v>270.0260478557146</v>
@@ -7187,7 +7187,7 @@
         <v>2135.190356524677</v>
       </c>
       <c r="O38" t="n">
-        <v>2761.436232647469</v>
+        <v>3015.155006854131</v>
       </c>
       <c r="P38" t="n">
         <v>3474.791320094415</v>
@@ -7196,7 +7196,7 @@
         <v>3933.269522603403</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S38" t="n">
         <v>3994.504809309627</v>
@@ -7205,10 +7205,10 @@
         <v>3835.976694641922</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W38" t="n">
         <v>3040.963574146293</v>
@@ -7248,16 +7248,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D40" t="n">
         <v>549.9474938257041</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7388,25 +7388,25 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
         <v>270.0260478557146</v>
@@ -7415,46 +7415,46 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L41" t="n">
-        <v>1054.87963479397</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M41" t="n">
-        <v>1588.411539465894</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N41" t="n">
-        <v>2135.190356524677</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O41" t="n">
-        <v>2761.43623264747</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P41" t="n">
-        <v>3474.791320094416</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603404</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="42">
@@ -7485,16 +7485,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960323</v>
       </c>
       <c r="K43" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973153</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982168</v>
+        <v>786.332686498218</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V43" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="44">
@@ -7637,37 +7637,37 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>603.8454215455611</v>
+        <v>810.8729904741854</v>
       </c>
       <c r="L44" t="n">
-        <v>1054.87963479397</v>
+        <v>1261.907203722594</v>
       </c>
       <c r="M44" t="n">
-        <v>1588.411539465894</v>
+        <v>2240.457506552423</v>
       </c>
       <c r="N44" t="n">
-        <v>2568.163811692541</v>
+        <v>2787.236323611205</v>
       </c>
       <c r="O44" t="n">
-        <v>3071.136282571878</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.791320094415</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834458</v>
@@ -7676,13 +7676,13 @@
         <v>3994.504809309626</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
         <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
@@ -7722,13 +7722,13 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
         <v>779.7865456803191</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G46" t="n">
         <v>229.7905149643394</v>
@@ -7801,16 +7801,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
@@ -7834,7 +7834,7 @@
         <v>2127.355355052753</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U46" t="n">
         <v>1711.385138644068</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
   </sheetData>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>211.5190568131979</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>211.5190568131996</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>102.0353393016206</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9416,10 +9416,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>211.5190568131996</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9644,22 +9644,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>426.1176621550783</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>251.11839201803</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>103.0321403958389</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9884,19 +9884,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>124.5185911550049</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>287.0017854473902</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>124.5185911550055</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>165.3902622431544</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>21.74982042514614</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>124.5185911550049</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,22 +10589,22 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>240.9710754359423</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>124.5185911550049</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10835,10 +10835,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>124.5185911550058</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>65.51711806374323</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11063,25 +11063,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>306.6874953089242</v>
       </c>
       <c r="O41" t="n">
-        <v>124.5185911550067</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>40.02214132148612</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>8.970374914503907</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>104.862051726467</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>132.7736637098932</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>393.21072795221</v>
       </c>
       <c r="G11" t="n">
-        <v>397.2564078639521</v>
+        <v>397.256407863952</v>
       </c>
       <c r="H11" t="n">
-        <v>280.9424465978191</v>
+        <v>280.942446597819</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>27.9116119834242</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>158.3895924919246</v>
+        <v>163.4710634354148</v>
       </c>
       <c r="C13" t="n">
-        <v>153.5815033091264</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>134.9501552287109</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>132.7686448570678</v>
+        <v>132.7686448570677</v>
       </c>
       <c r="F13" t="n">
         <v>131.7557302334298</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>152.3604904695268</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0896971248193</v>
       </c>
       <c r="I13" t="n">
-        <v>82.68710262033667</v>
+        <v>82.68710262033663</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>17.53944604152696</v>
       </c>
       <c r="E14" t="n">
-        <v>132.7736637098918</v>
+        <v>368.2650522827604</v>
       </c>
       <c r="F14" t="n">
         <v>393.21072795221</v>
       </c>
       <c r="G14" t="n">
-        <v>397.256407863952</v>
+        <v>397.2564078639521</v>
       </c>
       <c r="H14" t="n">
-        <v>280.942446597819</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>27.91161198342454</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>28.52090820670367</v>
+        <v>153.5815033091264</v>
       </c>
       <c r="D16" t="n">
         <v>134.9501552287109</v>
       </c>
       <c r="E16" t="n">
-        <v>132.7686448570677</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>131.7557302334298</v>
@@ -23668,10 +23668,10 @@
         <v>152.3604904695268</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0896971248193</v>
+        <v>131.0896971248194</v>
       </c>
       <c r="I16" t="n">
-        <v>82.68710262033663</v>
+        <v>82.68710262033667</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>7.708049754646002</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>38.81130843425552</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>38.81130843425365</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23978,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>38.81130843425367</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>38.81130843425512</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -26375,37 +26375,37 @@
         <v>1134700.308569465</v>
       </c>
       <c r="F3" t="n">
-        <v>3.979039320256561e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>71467.01119388588</v>
+        <v>71467.01119388582</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2659.436701233071</v>
+        <v>2659.436701233162</v>
       </c>
       <c r="J3" t="n">
-        <v>12898.44302927953</v>
+        <v>12898.44302927959</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.568292073</v>
+        <v>207188.5682920731</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>29753.24015870668</v>
+        <v>29753.24015870649</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>425523.1391661035</v>
       </c>
       <c r="E4" t="n">
+        <v>23579.83155803462</v>
+      </c>
+      <c r="F4" t="n">
         <v>23579.83155803458</v>
       </c>
-      <c r="F4" t="n">
-        <v>23579.83155803463</v>
-      </c>
       <c r="G4" t="n">
-        <v>80290.36045306723</v>
+        <v>80290.36045306717</v>
       </c>
       <c r="H4" t="n">
-        <v>80290.36045306723</v>
+        <v>80290.3604530672</v>
       </c>
       <c r="I4" t="n">
         <v>81477.12876955487</v>
       </c>
       <c r="J4" t="n">
-        <v>78703.96570883345</v>
+        <v>78703.96570883342</v>
       </c>
       <c r="K4" t="n">
-        <v>78703.96570883345</v>
+        <v>78703.96570883348</v>
       </c>
       <c r="L4" t="n">
-        <v>78703.96570883345</v>
+        <v>78703.96570883346</v>
       </c>
       <c r="M4" t="n">
-        <v>78703.96570883345</v>
+        <v>78703.96570883346</v>
       </c>
       <c r="N4" t="n">
         <v>78703.96570883348</v>
       </c>
       <c r="O4" t="n">
+        <v>78703.96570883342</v>
+      </c>
+      <c r="P4" t="n">
         <v>78703.96570883349</v>
-      </c>
-      <c r="P4" t="n">
-        <v>78703.96570883348</v>
       </c>
     </row>
     <row r="5">
@@ -26479,25 +26479,25 @@
         <v>75455.1701626389</v>
       </c>
       <c r="F5" t="n">
-        <v>75455.17016263891</v>
+        <v>75455.1701626389</v>
       </c>
       <c r="G5" t="n">
-        <v>86921.42030325584</v>
+        <v>86921.42030325581</v>
       </c>
       <c r="H5" t="n">
-        <v>86921.42030325584</v>
+        <v>86921.42030325581</v>
       </c>
       <c r="I5" t="n">
         <v>87529.4721360745</v>
       </c>
       <c r="J5" t="n">
+        <v>89377.94167480612</v>
+      </c>
+      <c r="K5" t="n">
+        <v>89377.94167480612</v>
+      </c>
+      <c r="L5" t="n">
         <v>89377.9416748061</v>
-      </c>
-      <c r="K5" t="n">
-        <v>89377.94167480613</v>
-      </c>
-      <c r="L5" t="n">
-        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
         <v>89377.94167480612</v>
@@ -26506,7 +26506,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="P5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-459150.7391661035</v>
+        <v>-459155.1527439716</v>
       </c>
       <c r="C6" t="n">
-        <v>-459150.7391661035</v>
+        <v>-459155.1527439717</v>
       </c>
       <c r="D6" t="n">
-        <v>-459150.7391661035</v>
+        <v>-459155.1527439716</v>
       </c>
       <c r="E6" t="n">
-        <v>-1233735.310290138</v>
+        <v>-1234022.590719841</v>
       </c>
       <c r="F6" t="n">
-        <v>-99035.00172067358</v>
+        <v>-99322.28215037653</v>
       </c>
       <c r="G6" t="n">
-        <v>-238678.7919502089</v>
+        <v>-238686.5154005872</v>
       </c>
       <c r="H6" t="n">
-        <v>-167211.7807563231</v>
+        <v>-167219.5042067014</v>
       </c>
       <c r="I6" t="n">
-        <v>-171666.0376068624</v>
+        <v>-171666.0376068625</v>
       </c>
       <c r="J6" t="n">
         <v>-180980.3504129191</v>
       </c>
       <c r="K6" t="n">
-        <v>-168081.9073836397</v>
+        <v>-168081.9073836396</v>
       </c>
       <c r="L6" t="n">
         <v>-205662.0166785136</v>
       </c>
       <c r="M6" t="n">
-        <v>-375270.4756757125</v>
+        <v>-375270.4756757126</v>
       </c>
       <c r="N6" t="n">
         <v>-168081.9073836396</v>
       </c>
       <c r="O6" t="n">
-        <v>-197835.1475423463</v>
+        <v>-197835.147542346</v>
       </c>
       <c r="P6" t="n">
-        <v>-168081.9073836396</v>
+        <v>-168081.9073836397</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>13.66531778950145</v>
+      </c>
+      <c r="F2" t="n">
         <v>13.66531778950141</v>
       </c>
-      <c r="F2" t="n">
-        <v>13.66531778950146</v>
-      </c>
       <c r="G2" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="H2" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="I2" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859252</v>
+      </c>
+      <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="K2" t="n">
-        <v>46.97513661859252</v>
-      </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
         <v>46.97513661859255</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26759,10 +26759,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="K3" t="n">
         <v>1089.776700593298</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1089.776700593299</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>955.0379254718403</v>
+        <v>955.0379254718398</v>
       </c>
       <c r="H4" t="n">
-        <v>955.0379254718403</v>
+        <v>955.0379254718399</v>
       </c>
       <c r="I4" t="n">
         <v>965.038777985305</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208615</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="N4" t="n">
         <v>1014.336461208615</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.66531778950142</v>
+        <v>13.66531778950146</v>
       </c>
       <c r="F2" t="n">
-        <v>4.973799150320701e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27018,37 +27018,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>123.6364700695473</v>
+        <v>123.6364700695469</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>10.00085251346479</v>
+        <v>10.00085251346513</v>
       </c>
       <c r="J4" t="n">
-        <v>49.29768322330926</v>
+        <v>49.29768322330949</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>123.6364700695475</v>
+        <v>123.6364700695467</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.66531778950142</v>
+        <v>13.66531778950146</v>
       </c>
       <c r="K2" t="n">
-        <v>4.973799150320701e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>123.6364700695473</v>
+        <v>123.6364700695469</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="C11" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="D11" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="E11" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="F11" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="G11" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="H11" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="I11" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="T11" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="U11" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="V11" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="W11" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="X11" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="C13" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="D13" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="E13" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="F13" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="G13" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="H13" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="I13" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="J13" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="K13" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="L13" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="M13" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="N13" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="O13" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="P13" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="R13" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="S13" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="T13" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="U13" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="V13" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="W13" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="X13" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.66531778950141</v>
+        <v>13.66531778950145</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="C14" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="D14" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="E14" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="F14" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="G14" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="H14" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="I14" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="T14" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="U14" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="V14" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="W14" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="X14" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="C16" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="D16" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="E16" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="F16" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="G16" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="H16" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="I16" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="J16" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="K16" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="L16" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="M16" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="N16" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="O16" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="P16" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="R16" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="S16" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="T16" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="U16" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="V16" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="W16" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="X16" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.66531778950146</v>
+        <v>13.66531778950141</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="C17" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="D17" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="E17" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="F17" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="G17" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="H17" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="T17" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="U17" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="V17" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="W17" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="X17" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="Y17" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
     </row>
     <row r="18">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="C19" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="D19" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="E19" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="F19" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="G19" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="H19" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="I19" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28752,43 +28752,43 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>60.64045440809397</v>
+      </c>
+      <c r="P19" t="n">
         <v>31.4357186371717</v>
       </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>60.64045440809398</v>
-      </c>
-      <c r="P19" t="n">
-        <v>60.64045440809398</v>
-      </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="S19" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="T19" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="U19" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="V19" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="W19" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="X19" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="C20" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="D20" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="E20" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="F20" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="G20" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="H20" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="T20" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="U20" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="V20" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="W20" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="X20" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="Y20" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
     </row>
     <row r="21">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="C22" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="D22" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="E22" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="F22" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="G22" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="H22" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="I22" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="J22" t="n">
-        <v>31.43571863717155</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28989,43 +28989,43 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="N22" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>31.43571863717148</v>
       </c>
       <c r="P22" t="n">
-        <v>60.64045440809398</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="S22" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="T22" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="U22" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="V22" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="W22" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="X22" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="C23" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="D23" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="E23" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="F23" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="G23" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="H23" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="T23" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="U23" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="V23" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="W23" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="X23" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="Y23" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="C25" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="D25" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="E25" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="F25" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="G25" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="H25" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="I25" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29226,43 +29226,43 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>31.43571863717148</v>
       </c>
       <c r="N25" t="n">
-        <v>31.43571863717136</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>60.64045440809398</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="R25" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="S25" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="T25" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="U25" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="V25" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="W25" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="X25" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.64045440809398</v>
+        <v>60.64045440809397</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="35">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J43" t="n">
-        <v>46.9751366185922</v>
+        <v>46.97513661859355</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -32315,7 +32315,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32944,40 +32944,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T26" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33096,43 +33096,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33181,40 +33181,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33333,43 +33333,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33509,7 +33509,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -33989,7 +33989,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34448,10 +34448,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.24373440256764</v>
+        <v>59.24373440256768</v>
       </c>
       <c r="K13" t="n">
         <v>219.712977333821</v>
       </c>
       <c r="L13" t="n">
-        <v>333.4226899596995</v>
+        <v>333.4226899596996</v>
       </c>
       <c r="M13" t="n">
-        <v>361.2986971829852</v>
+        <v>361.2986971829853</v>
       </c>
       <c r="N13" t="n">
         <v>358.5222639570415</v>
@@ -35583,10 +35583,10 @@
         <v>316.0184480121412</v>
       </c>
       <c r="P13" t="n">
-        <v>248.6223889346118</v>
+        <v>248.6223889346119</v>
       </c>
       <c r="Q13" t="n">
-        <v>92.05955632739507</v>
+        <v>92.05955632739511</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.24373440256772</v>
+        <v>59.24373440256764</v>
       </c>
       <c r="K16" t="n">
         <v>219.712977333821</v>
       </c>
       <c r="L16" t="n">
-        <v>333.4226899596996</v>
+        <v>333.4226899596995</v>
       </c>
       <c r="M16" t="n">
-        <v>361.2986971829853</v>
+        <v>361.2986971829852</v>
       </c>
       <c r="N16" t="n">
-        <v>358.5222639570416</v>
+        <v>358.5222639570415</v>
       </c>
       <c r="O16" t="n">
         <v>316.0184480121412</v>
       </c>
       <c r="P16" t="n">
-        <v>248.6223889346119</v>
+        <v>248.6223889346118</v>
       </c>
       <c r="Q16" t="n">
-        <v>92.05955632739511</v>
+        <v>92.05955632739507</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>667.1091712055301</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35899,7 +35899,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>610.2810430325715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
         <v>463.1092954636242</v>
@@ -35963,7 +35963,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>106.2188710211602</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
@@ -36048,7 +36048,7 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>379.0690980306555</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
         <v>344.8569461675401</v>
@@ -36057,7 +36057,7 @@
         <v>362.9935846307337</v>
       </c>
       <c r="P19" t="n">
-        <v>295.5975255532044</v>
+        <v>266.3927897822821</v>
       </c>
       <c r="Q19" t="n">
         <v>78.39423853789366</v>
@@ -36124,7 +36124,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>557.6254536939527</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36136,10 +36136,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>610.2810430325715</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>77.01413525023777</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
@@ -36285,16 +36285,16 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>408.2738338015778</v>
       </c>
       <c r="N22" t="n">
         <v>405.4974005756341</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>333.7888488598113</v>
       </c>
       <c r="P22" t="n">
-        <v>295.5975255532044</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
         <v>78.39423853789366</v>
@@ -36364,22 +36364,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>965.038777985305</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>759.1713929062491</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>353.8264451995584</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36522,19 +36522,19 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>379.0690980306553</v>
       </c>
       <c r="N25" t="n">
-        <v>376.2926648047114</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>362.9935846307337</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>295.5975255532044</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>139.0346929459876</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O26" t="n">
-        <v>632.571592043224</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>685.7637716667622</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36753,7 +36753,7 @@
         <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>632.5715920432249</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636243</v>
+        <v>416.1845670468738</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37072,7 +37072,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>477.3399348174783</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37081,16 +37081,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>632.571592043224</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37309,22 +37309,22 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>779.8921912661691</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>632.571592043224</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37555,10 +37555,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>632.5715920432249</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>464.2791042831151</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
@@ -37622,7 +37622,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37637,7 +37637,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37716,7 +37716,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637028</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37783,25 +37783,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>858.9893307218357</v>
       </c>
       <c r="O41" t="n">
-        <v>632.5715920432258</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359772</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165843</v>
+        <v>92.55355323165978</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>377.2134278768866</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>407.7323611338758</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38096,10 +38096,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
@@ -38193,7 +38193,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
